--- a/data/trans_dic/P36BPD04_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05279988915248652</v>
+        <v>0.05279988915248653</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.05562305476066964</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03148072516959574</v>
+        <v>0.03309657223853086</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03984581001221347</v>
+        <v>0.03834492402530971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04085810259067783</v>
+        <v>0.04099839159768429</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07875097763735907</v>
+        <v>0.08144431211222329</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07562776738698787</v>
+        <v>0.07500100916919365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07034166080598191</v>
+        <v>0.07163046635963459</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0490558093126921</v>
+        <v>0.04905580931269209</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.05334314239775832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05123101434608066</v>
+        <v>0.05123101434608065</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03072316581551138</v>
+        <v>0.03040348212235322</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03942883016233328</v>
+        <v>0.03844320156317781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0395809305510161</v>
+        <v>0.03933195157742849</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07423365309323711</v>
+        <v>0.07564495752306799</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07613630155253069</v>
+        <v>0.07396975149707952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06685534056431323</v>
+        <v>0.06731599445600144</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1655909042909596</v>
+        <v>0.1656916813388655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2287129613120574</v>
+        <v>0.2366591240252534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2113911964258175</v>
+        <v>0.2084971354373376</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2532898331156219</v>
+        <v>0.2481436994119799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3049513431610215</v>
+        <v>0.3087329359992291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.268260762004208</v>
+        <v>0.2675596730746868</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.4543623719740061</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3775124467258331</v>
+        <v>0.3775124467258332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4135782793177124</v>
+        <v>0.4135782793177125</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3898897718098795</v>
+        <v>0.3878611960833535</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3303316087286153</v>
+        <v>0.3323920486996066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3709734685886841</v>
+        <v>0.3734396095073974</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5292522649634352</v>
+        <v>0.522960940007769</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4235627022135076</v>
+        <v>0.4236319880182959</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.454239203091624</v>
+        <v>0.453318415281567</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2354404910862443</v>
+        <v>0.2465813059112228</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3328424117216504</v>
+        <v>0.3310297197154424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3014519548180157</v>
+        <v>0.3025163567190574</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3539456885977912</v>
+        <v>0.3609490126217196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.431140723085719</v>
+        <v>0.4244201258801006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.377089236588839</v>
+        <v>0.3767797794878967</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08888605916962827</v>
+        <v>0.09040703794481213</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09785696026206157</v>
+        <v>0.09990770552917792</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1025863116970577</v>
+        <v>0.1011032784215702</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1516366497131473</v>
+        <v>0.1547939971001117</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1593729950870363</v>
+        <v>0.1610994395223898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1447487984320359</v>
+        <v>0.1445253581854962</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3010004556715521</v>
+        <v>0.3043642550943657</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2938264603374873</v>
+        <v>0.2916747378244375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3084638913303699</v>
+        <v>0.3101302981205781</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.384628688301247</v>
+        <v>0.3900919994821058</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.357833015147057</v>
+        <v>0.3571121765501808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3607526269732828</v>
+        <v>0.3603970581886535</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1154779085931819</v>
+        <v>0.1158018125664606</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1047472733171089</v>
+        <v>0.1039108369478824</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1132660675547517</v>
+        <v>0.1151655665048086</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1656715277555668</v>
+        <v>0.1674315827024789</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1451126618574249</v>
+        <v>0.1461292499964655</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1456568994878665</v>
+        <v>0.1477010521265772</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10037</v>
+        <v>10553</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12594</v>
+        <v>12119</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25941</v>
+        <v>26030</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25109</v>
+        <v>25968</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23903</v>
+        <v>23705</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44660</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16303</v>
+        <v>16134</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21548</v>
+        <v>21009</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42634</v>
+        <v>42366</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39392</v>
+        <v>40141</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41608</v>
+        <v>40424</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72013</v>
+        <v>72509</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52326</v>
+        <v>52357</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>80781</v>
+        <v>83588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>141461</v>
+        <v>139525</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80038</v>
+        <v>78412</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>107709</v>
+        <v>109044</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>179518</v>
+        <v>179049</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>145485</v>
+        <v>144728</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>139387</v>
+        <v>140256</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>294964</v>
+        <v>296924</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>197488</v>
+        <v>195140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>178727</v>
+        <v>178756</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>361169</v>
+        <v>360437</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48422</v>
+        <v>50713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75496</v>
+        <v>75085</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>130374</v>
+        <v>130835</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>72794</v>
+        <v>74235</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>97793</v>
+        <v>96268</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>163087</v>
+        <v>162953</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24062</v>
+        <v>24474</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25810</v>
+        <v>26351</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>54828</v>
+        <v>54035</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41049</v>
+        <v>41904</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42035</v>
+        <v>42490</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>77362</v>
+        <v>77243</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>215964</v>
+        <v>218377</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>226851</v>
+        <v>225190</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>459471</v>
+        <v>461953</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>275966</v>
+        <v>279886</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>276267</v>
+        <v>275711</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>537357</v>
+        <v>536827</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92160</v>
+        <v>92418</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>87080</v>
+        <v>86384</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>184556</v>
+        <v>187651</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>132218</v>
+        <v>133622</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>120637</v>
+        <v>121482</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>237334</v>
+        <v>240665</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
     </row>
     <row r="40">
